--- a/spreadsheets/Shen.xlsx
+++ b/spreadsheets/Shen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7CF328-146E-433B-A3AE-95FEB08F5029}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DD1347-CB11-4E7A-8955-9709FFB4235F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="990" windowWidth="21525" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
   <si>
     <t>id</t>
   </si>
@@ -82,9 +82,6 @@
     <t>youtube</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t xml:space="preserve">  </t>
   </si>
   <si>
@@ -409,14 +406,14 @@
     <t>If you go in for taunt and then get stuck in his cage, you can get 100-0'd. Don't taunt aggressively unless you can kill him. You can do short trades if he misses E. Easy gank for your jungler.</t>
   </si>
   <si>
-    <t>https://i.imgur.com/1dAbdxs.jpg</t>
+    <t>https://i.imgur.com/oVhopAi.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -440,6 +437,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -462,13 +466,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -878,7 +883,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,7 +950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -960,59 +965,61 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>21</v>
+      <c r="A8" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" display="https://euw.op.gg/summoner/userName=Shending+Help" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{1521BEB1-F687-44ED-A683-9F937BC58CB0}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{7C358296-D278-4ACB-BDA9-DEC096DC7BE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId3"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1021,7 +1028,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,518 +1041,518 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9">
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18">
         <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B26">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28">
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B30">
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31">
         <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36">
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38">
         <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B44">
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B45">
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
